--- a/ECP-TABLE.xlsx
+++ b/ECP-TABLE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olga\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C537C9E-43B9-48E1-BD4A-1E2708B77250}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAC5593-4281-4A5C-8003-ADDE5BB236B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11052" windowHeight="5568" xr2:uid="{A6FDB006-A27C-4E30-9DD9-C87B92D6577C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,18 +61,6 @@
     <t>&gt; 3 || &lt; 3</t>
   </si>
   <si>
-    <t>IDUser = INT ; name= String ; rentalProgram = INT</t>
-  </si>
-  <si>
-    <t>IDUser &gt;= 0 ; name = "name" ; rentalProgram = 1 || rentalProgram = 2</t>
-  </si>
-  <si>
-    <t>IDUser!= INT; name!=String; rentalProgram!=INT</t>
-  </si>
-  <si>
-    <t>IDUser&lt;0 ; name=null; rentalProgram !=1 || rentalProgram !=2</t>
-  </si>
-  <si>
     <t>ECP2</t>
   </si>
   <si>
@@ -96,18 +85,6 @@
     <t>ECP7</t>
   </si>
   <si>
-    <t>IDUser = INT; amount = INT</t>
-  </si>
-  <si>
-    <t>IDUser != INT; amount != INT</t>
-  </si>
-  <si>
-    <t>IDUser&gt;=0; amount &gt; 0</t>
-  </si>
-  <si>
-    <t>IDUser&lt;0; amount&lt;= 0</t>
-  </si>
-  <si>
     <t>ECP8</t>
   </si>
   <si>
@@ -165,18 +142,6 @@
     <t>&gt;4 || &lt; 4</t>
   </si>
   <si>
-    <t>rentalProgram = INT; startTime = INT; endTime = INT; nRentals = INT</t>
-  </si>
-  <si>
-    <t>rentalProgram != INT; startTime != INT; endTime != INT; nRentals != INT</t>
-  </si>
-  <si>
-    <t>rentalProgram&gt;=0; startTime&gt;=0; endTime&gt;=0; nRentals&gt;=0; startTime&lt;=endTime</t>
-  </si>
-  <si>
-    <t>rentalProgram&lt;0; startTime&lt;0; endTime&lt;0; nRentals&lt;0; startTime&gt;endTime</t>
-  </si>
-  <si>
     <t>ECP19</t>
   </si>
   <si>
@@ -201,18 +166,6 @@
     <t>&gt;3 || &lt; 3</t>
   </si>
   <si>
-    <t>IDUser = INT; IDDeposit = INT; endTime = INT</t>
-  </si>
-  <si>
-    <t>IDUser != INT; IDDeposit != INT; endTime != INT</t>
-  </si>
-  <si>
-    <t>IDUser&gt;=0; IDDeposit&gt;0; endTime&gt;=0</t>
-  </si>
-  <si>
-    <t>IDUser&lt;0; IDDeposit&lt;=0; endTime&lt;0</t>
-  </si>
-  <si>
     <t>ECP25</t>
   </si>
   <si>
@@ -234,18 +187,6 @@
     <t>getBicycle</t>
   </si>
   <si>
-    <t>IDUser = INT; IDDeposit = INT; startTime = INT</t>
-  </si>
-  <si>
-    <t>IDUser != INT; IDDeposit != INT; startTime != INT</t>
-  </si>
-  <si>
-    <t>IDUser&gt;0; IDDeposit&gt;0; startTime&gt;=0</t>
-  </si>
-  <si>
-    <t>IDUser&lt;=0; IDDeposit&lt;=0; startTime&lt;0</t>
-  </si>
-  <si>
     <t>ECP31</t>
   </si>
   <si>
@@ -262,6 +203,66 @@
   </si>
   <si>
     <t>ECP36</t>
+  </si>
+  <si>
+    <t>IDUser!= INT || name!=String || rentalProgram!=INT</t>
+  </si>
+  <si>
+    <t>IDUser = INT &amp;&amp;  name= String  &amp;&amp; rentalProgram = INT</t>
+  </si>
+  <si>
+    <t>IDUser &gt;= 0 &amp;&amp; name = "name" &amp;&amp; rentalProgram = 1 &amp;&amp; rentalProgram = 2</t>
+  </si>
+  <si>
+    <t>IDUser&lt;0 || name=null || rentalProgram !=1 || rentalProgram !=2</t>
+  </si>
+  <si>
+    <t>IDUser = INT &amp;&amp; amount = INT</t>
+  </si>
+  <si>
+    <t>IDUser != INT || amount != INT</t>
+  </si>
+  <si>
+    <t>IDUser&gt;=0 &amp;&amp; amount &gt; 0</t>
+  </si>
+  <si>
+    <t>IDUser&lt;0 || amount&lt;= 0</t>
+  </si>
+  <si>
+    <t>rentalProgram = INT &amp;&amp; startTime = INT &amp;&amp; endTime = INT &amp;&amp; nRentals = INT</t>
+  </si>
+  <si>
+    <t>rentalProgram != INT ||startTime != INT || endTime != INT || nRentals != INT</t>
+  </si>
+  <si>
+    <t>rentalProgram&gt;=0 &amp;&amp; startTime&gt;=0 &amp;&amp; endTime&gt;=0 &amp;&amp; nRentals&gt;=0 &amp;&amp; startTime&lt;=endTime</t>
+  </si>
+  <si>
+    <t>rentalProgram&lt;0 || startTime&lt;0 || endTime&lt;0 || nRentals&lt;0 || startTime&gt;endTime</t>
+  </si>
+  <si>
+    <t>IDUser = INT &amp;&amp; IDDeposit = INT &amp;&amp; endTime = INT</t>
+  </si>
+  <si>
+    <t>IDUser&gt;=0 &amp;&amp; IDDeposit&gt;0 &amp;&amp; endTime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser != INT || IDDeposit != INT || endTime != INT</t>
+  </si>
+  <si>
+    <t>IDUser&lt;0 || IDDeposit&lt;=0 || endTime&lt;0</t>
+  </si>
+  <si>
+    <t>IDUser = INT &amp;&amp; IDDeposit = INT &amp;&amp; startTime = INT</t>
+  </si>
+  <si>
+    <t>IDUser&gt;0 &amp;&amp; IDDeposit&gt;0 &amp;&amp; startTime&gt;=0</t>
+  </si>
+  <si>
+    <t>IDUser != INT || IDDeposit != INT || startTime != INT</t>
+  </si>
+  <si>
+    <t>IDUser&lt;=0 || IDDeposit&lt;=0 || startTime&lt;0</t>
   </si>
 </sst>
 </file>
@@ -734,17 +735,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D6593E-D5E9-4ABD-B43D-2DC3B4C87D17}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
@@ -781,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -790,16 +791,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,16 +809,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -837,7 +838,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -846,13 +847,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -861,16 +862,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -879,16 +880,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -908,7 +909,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -917,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -932,16 +933,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -950,16 +951,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -979,7 +980,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
@@ -988,13 +989,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1021,16 +1022,16 @@
         <v>4</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1050,7 +1051,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>3</v>
@@ -1059,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,16 +1075,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1092,16 +1093,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1121,7 +1122,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>3</v>
@@ -1130,13 +1131,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,16 +1146,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1163,16 +1164,16 @@
         <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1187,4 +1188,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA594D9-4521-490D-A22D-2713C7D98FE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>